--- a/DataExample/customers.xlsx
+++ b/DataExample/customers.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Khách lẻ</t>
   </si>
@@ -543,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,15 +557,15 @@
     <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -582,305 +579,266 @@
       <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>37359</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="1">
+        <v>35835</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>37359</v>
-      </c>
-      <c r="E2">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35469</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>35835</v>
-      </c>
-      <c r="E3">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35743</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>35469</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>35743</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1">
+        <v>37326</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>37326</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1">
+        <v>28551</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="1">
-        <v>28551</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1">
+        <v>37407</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="1">
-        <v>37407</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1">
+        <v>36220</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>33377</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1">
-        <v>36220</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>33377</v>
-      </c>
-      <c r="E10">
+      <c r="C11" s="1">
+        <v>34502</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1">
-        <v>34502</v>
-      </c>
-      <c r="E11">
+      <c r="C12" s="1">
+        <v>36634</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" s="1">
-        <v>36634</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="1">
         <v>31906</v>
       </c>
-      <c r="E13">
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
